--- a/etc/2024_물량산출 마무리/Total BOQ_blank_팀표준(20241216).xlsx
+++ b/etc/2024_물량산출 마무리/Total BOQ_blank_팀표준(20241216).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\etc\2024_물량산출 마무리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\2024_물량산출 마무리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8A010-1417-4FF3-AF47-D941E07B22DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{96E3450D-D6BB-4695-8CFD-E83569F91B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72CBEEC5-98BF-4008-85AD-D7B0963363E4}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{72CBEEC5-98BF-4008-85AD-D7B0963363E4}"/>
   </bookViews>
   <sheets>
     <sheet name="(AR) BOQ View (Working)" sheetId="1" r:id="rId1"/>
@@ -8136,4 +8136,10 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a11ee6e5-21a0-48c4-8af4-6cc1347f763e}" enabled="1" method="Privileged" siteId="{a27ddcc1-bea5-4183-aa29-fd96d7612a1d}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/etc/2024_물량산출 마무리/Total BOQ_blank_팀표준(20241216).xlsx
+++ b/etc/2024_물량산출 마무리/Total BOQ_blank_팀표준(20241216).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\2024_물량산출 마무리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{BE30CFF1-72B8-4239-8E66-56A739E92685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{F8DC610A-6178-47C3-B1A7-6E8E9683345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{72CBEEC5-98BF-4008-85AD-D7B0963363E4}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:L413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/etc/2024_물량산출 마무리/Total BOQ_blank_팀표준(20241216).xlsx
+++ b/etc/2024_물량산출 마무리/Total BOQ_blank_팀표준(20241216).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\2024_물량산출 마무리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{F8DC610A-6178-47C3-B1A7-6E8E9683345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{7647A1E9-5509-4F24-AA17-096428A0F866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{72CBEEC5-98BF-4008-85AD-D7B0963363E4}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:L413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
